--- a/biology/Zoologie/Eumops_maurus/Eumops_maurus.xlsx
+++ b/biology/Zoologie/Eumops_maurus/Eumops_maurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eumope de Thomas
-Eumops maurus, l'Eumope de Thomas[2], est une espèce sud-américaine de chauves-souris de la famille des Molossidae.
+Eumops maurus, l'Eumope de Thomas, est une espèce sud-américaine de chauves-souris de la famille des Molossidae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eumops maurus a une longueur de la tête et du corps entre 60 et 72 mm, la longueur de l'avant-bras entre 51 et 54 mm, la longueur de la queue entre 40 et 45 mm, la longueur du pied entre 11 et 12 mm, la longueur des oreilles entre 21 et 22 mm et un poids jusqu'à 22 g.
 La fourrure est pelucheuse. La couleur générale du corps est brun foncé avec des bandes blanches le long de la partie ventrale des flancs. La tête est large et aplatie, les lèvres sont lisses. Les oreilles sont larges, triangulaires et jointes à la base antérieure.
@@ -546,10 +560,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eumops maurus est présente dans les Guyanes, dans l'est de l'Équateur[3] et dans les États brésiliens de Goiás, Tocantins et São Paulo[4].
-Elle vit dans les forêts tropicales à feuilles persistantes, les plantations et les zones humides des basses terres, comme les savanes avec des marécages dominés par le palmier Mauritia flexuosa (buriti) et des galeries forestières[4], jusqu'à 500 mètres d'altitude.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eumops maurus est présente dans les Guyanes, dans l'est de l'Équateur et dans les États brésiliens de Goiás, Tocantins et São Paulo.
+Elle vit dans les forêts tropicales à feuilles persistantes, les plantations et les zones humides des basses terres, comme les savanes avec des marécages dominés par le palmier Mauritia flexuosa (buriti) et des galeries forestières, jusqu'à 500 mètres d'altitude.
 </t>
         </is>
       </c>
@@ -580,12 +596,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Habitation
-Eumops maurus vit en petits groupes de 10 à 20 individus dans des trous d'arbres et sous les toits de bâtiments[4].
-Alimentation
-Elle se nourrit d'insectes capturés en vol.
-Reproduction
-Des femelles gestantes furent capturées en Équateur en septembre.
+          <t>Habitation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eumops maurus vit en petits groupes de 10 à 20 individus dans des trous d'arbres et sous les toits de bâtiments.
 </t>
         </is>
       </c>
@@ -611,13 +628,89 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se nourrit d'insectes capturés en vol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eumops_maurus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eumops_maurus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des femelles gestantes furent capturées en Équateur en septembre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eumops_maurus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eumops_maurus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Eumops maurus (Thomas, 1901). L'espèce a été initialement classée dans le genre Molossus sous le protonyme Molossus maurus Thomas, 1901[1].
-Eumops maurus a pour synonymes[1] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Eumops maurus (Thomas, 1901). L'espèce a été initialement classée dans le genre Molossus sous le protonyme Molossus maurus Thomas, 1901.
+Eumops maurus a pour synonymes :
 Eumops geijskesi Husson, 1962
 Molossus maurus Thomas, 1901</t>
         </is>
